--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="109">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>320018590118</t>
+  </si>
+  <si>
+    <t>320018607974</t>
+  </si>
+  <si>
+    <t>320018612583</t>
+  </si>
+  <si>
+    <t>320018612594</t>
+  </si>
+  <si>
+    <t>320018612620</t>
   </si>
 </sst>
 </file>
@@ -759,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -885,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
@@ -938,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -991,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -1044,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="112">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>320018612620</t>
+  </si>
+  <si>
+    <t>320018616155</t>
+  </si>
+  <si>
+    <t>320018616166</t>
+  </si>
+  <si>
+    <t>320018616199</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
@@ -950,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -1056,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="118">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -350,6 +350,24 @@
   </si>
   <si>
     <t>320018616199</t>
+  </si>
+  <si>
+    <t>320018624933</t>
+  </si>
+  <si>
+    <t>320018624966</t>
+  </si>
+  <si>
+    <t>320018624977</t>
+  </si>
+  <si>
+    <t>320018646044</t>
+  </si>
+  <si>
+    <t>320018646077</t>
+  </si>
+  <si>
+    <t>320018656023</t>
   </si>
 </sst>
 </file>
@@ -906,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
@@ -959,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -1012,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q4" t="s">
         <v>46</v>
@@ -1065,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="119">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>320018656023</t>
+  </si>
+  <si>
+    <t>320018675555</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="123">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t>320018675555</t>
+  </si>
+  <si>
+    <t>320018680808</t>
+  </si>
+  <si>
+    <t>320018680820</t>
+  </si>
+  <si>
+    <t>320018680830</t>
+  </si>
+  <si>
+    <t>320018697788</t>
   </si>
 </sst>
 </file>
@@ -927,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
@@ -980,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -1033,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q4" t="s">
         <v>46</v>
@@ -1086,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="131">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -383,6 +383,30 @@
   </si>
   <si>
     <t>320018697788</t>
+  </si>
+  <si>
+    <t>$20.36</t>
+  </si>
+  <si>
+    <t>$19.30</t>
+  </si>
+  <si>
+    <t>$53.14</t>
+  </si>
+  <si>
+    <t>$46.27</t>
+  </si>
+  <si>
+    <t>320018702600</t>
+  </si>
+  <si>
+    <t>320018702611</t>
+  </si>
+  <si>
+    <t>320018702644</t>
+  </si>
+  <si>
+    <t>320018702655</t>
   </si>
 </sst>
 </file>
@@ -939,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -992,13 +1016,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -1045,13 +1069,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -1098,10 +1122,10 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q5" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="131">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="133">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>320018702655</t>
+  </si>
+  <si>
+    <t>320018720183</t>
+  </si>
+  <si>
+    <t>320018720210</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q3" t="s">
         <v>124</v>
@@ -1122,7 +1128,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5" t="s">
         <v>126</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="135">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>320018720210</t>
+  </si>
+  <si>
+    <t>$48.39</t>
+  </si>
+  <si>
+    <t>320018747466</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1134,10 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="136">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>320018747466</t>
+  </si>
+  <si>
+    <t>320018767480</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1137,10 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="145">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -422,6 +422,33 @@
   </si>
   <si>
     <t>320018767480</t>
+  </si>
+  <si>
+    <t>320018771563</t>
+  </si>
+  <si>
+    <t>320018771596</t>
+  </si>
+  <si>
+    <t>$88.83</t>
+  </si>
+  <si>
+    <t>320018771600</t>
+  </si>
+  <si>
+    <t>320018772250</t>
+  </si>
+  <si>
+    <t>320018782034</t>
+  </si>
+  <si>
+    <t>320018782045</t>
+  </si>
+  <si>
+    <t>$49.32</t>
+  </si>
+  <si>
+    <t>320018782089</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Q2" t="s">
         <v>123</v>
@@ -1031,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Q3" t="s">
         <v>124</v>
@@ -1084,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Q4" t="s">
         <v>125</v>
@@ -1137,10 +1164,10 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>
